--- a/DOM_Banner/output/dept_banner/Jennifer Segar_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Jennifer Segar_2023.xlsx
@@ -1604,7 +1604,7 @@
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W2348688227", "https://openalex.org/W2386923354", "https://openalex.org/W2418827130", "https://openalex.org/W4300573830", "https://openalex.org/W2375012438", "https://openalex.org/W2395279311", "https://openalex.org/W243857094", "https://openalex.org/W2358248846", "https://openalex.org/W2041128529", "https://openalex.org/W2164530441")</t>
+          <t>c("https://openalex.org/W148728087", "https://openalex.org/W2375265431", "https://openalex.org/W2035319767", "https://openalex.org/W2030053732", "https://openalex.org/W2005374976", "https://openalex.org/W111787504", "https://openalex.org/W4232799063", "https://openalex.org/W2330828714", "https://openalex.org/W2157228124", "https://openalex.org/W2033508602")</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Jennifer Segar_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Jennifer Segar_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,39 +452,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>1Hollywood Private Hospital, Nedlands, Australia;; 2Westmead Hospital, Westmead, Australia;; 3Saint John of God Subiaco Hospital, Subiaco, Australia;; 4Washington University School of Medicine, St Louis, MO;; 5University of Colorado, Aurora, CO;; 6Earle A. Chiles Research Institute, Portland, OR;; 7California Pacific Medical Center Research Institute, Oakland, CA;; 8Sarah Cannon Research Institute, Nashville, TN;; 9Melanoma Institute Australia, Wollstonecraft, Australia;; 10Massachusetts General Hospital, Boston, MA;; 11The Angeles Clinic and Research Institute, Los Angeles, CA;; 12Yale-New Haven Hospital, New Haven, CT;; 13Baylor Charles A. Sammons Cancer Center, Dallas, TX;; 14John Theurer Cancer Center, Hackensack, NJ;; 15The University of Arizona Cancer Center, Tucson, AZ;; 16Princess Alexandra Hospital, Woolloongabba, Australia;; 17Lombardi Cancer Center, Washington, DC;; 18UPMC Hillman Cancer Center, Pittsburg, PA;; 19Orlando Health, Orlando, FL;; 20Dana-Farber Cancer Institute, Boston, MA;; 21Moderna Inc., Cambridge, MA;; 21Moderna Inc., Cambridge, MA;; 22OrbiMed, New York, NY;; 21Moderna Inc., Cambridge, MA;; 21Moderna Inc., Cambridge, MA;; 21Moderna Inc., Cambridge, MA;; 23NYU Langone Medical Center, New York, NY.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4381283833</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Abstract CT001: A personalized cancer vaccine, mRNA-4157, combined with pembrolizumab versus pembrolizumab in patients with resected high-risk melanoma: Efficacy and safety results from the randomized, open-label Phase 2 mRNA-4157-P201/Keynote-942 trial</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-05-29</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Cancer Research</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>American Association for Cancer Research</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/1538-7445.am2023-ct001</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -487,35 +492,40 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/1538-7445.am2023-ct001</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,39 +539,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>One Clinical Research and Edith Cowan University, Perth, Western Australia, Australia; Laura and Isaac Perlmutter Cancer Center, NYU School of Medicine, New York, NY; Sir Charles Gairdner Hospital, Nedlands, Western Australia, Australia; Earle A. Chiles Research Institute, Portland, OR; Washington University Oncology, St. Louis, MO; California Pacific Medical Center Research Institute, San Francisco, CA; Sarah Cannon Research Institute, Tennessee Oncology, Nashville, TN; Melanoma Institute Australia, The University of Sydney, and Royal North Shore and Mater Hospitals, Sydney, NSW, Australia; Massachusetts General Hospital, Boston, MA; The Angeles Clinic and Research Institute, Los Angeles, CA; Yale-New Haven Hospital, New Haven, CT; Texas Oncology-Baylor Charles A. Sammons Cancer Center, Dallas, TX; University of Colorado, Aurora, CO; The University of Arizona Cancer Center, Tucson, AZ; Princess Alexandra Hospital and University of Queensland, Woolloongabba, QLD, Australia; Georgetown - Lombardi Comprehensive Cancer Center, Washington, DC; UPMC Hillman Cancer Center, Pittsburgh, PA; Dana-Farber Cancer Institute, Boston, MA; Moderna Therapeutics, Cambridge, MA; Melanoma Institute Australia, The University of Sydney, Westmead and Blacktown Hospitals, Sydney, Australia</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4379662180</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Distant metastasis-free survival results from the randomized, phase 2 mRNA-4157-P201/KEYNOTE-942 trial.</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-06-10</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Journal of Clinical Oncology</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2023.41.17_suppl.lba9503</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -569,35 +579,40 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2023.41.17_suppl.lba9503</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,39 +626,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>1Department of Surgery/University of Arizona; 2University of Arizona; 3Baylor University; 4University of Arizona; 5University of Arizona; 6University of Arizona; 7University of Arizona Cancer Center; 8University of Arizona; 9University of Arizona Cancer Center; 10University of Arizona Cancer Center, Tucson, Arizona.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4322771459</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Abstract P1-05-04: Physician Practice Patterns of Breast Imaging After Treatment: Survey of Real-World Practice</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-03-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Cancer Research</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>American Association for Cancer Research</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/1538-7445.sabcs22-p1-05-04</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -651,35 +666,40 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/1538-7445.sabcs22-p1-05-04</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,39 +713,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>1University of Arizona; 2University of Arizona; 3University of Wisconsin; 4University of Arizona; 5University of Arizona; 6University of Arizona; 7University of Arizona; 8University of Arizona; 9University of Arizona Cancer Center, Tucson, Arizona.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4322774752</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Abstract P4-04-02: Evaluation of Dronabinol to Decrease Opioid Use for Cancer- Induced Bone Pain</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-03-01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Cancer Research</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>American Association for Cancer Research</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/1538-7445.sabcs22-p4-04-02</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -733,35 +753,40 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/1538-7445.sabcs22-p4-04-02</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -770,80 +795,85 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Jessica A. Martinez, Betsy C. Wertheim, Denise J. Roe, Mihra S. Taljanovic, H‐H. Sherry Chow, Wade M. Chew, Sima Ehsani, Sao Jiralerspong, Jennifer Segar, Pavani Chalasani</t>
+          <t>Montaser Shaheen, Jennifer Segar, Bartosz Chmielowski, Joseph J. Drabick, Meredith McKean, James A. Reeves, Christos Stelios Karapetis, Marlana Orloff, Anthony W. Tolcher, J. Thaddeus Beck, Brian Gastman, Asit K. De, Ben Paudyal, R Winkler, Mingyu Li, Mohammad Ahmad, Dajun Yang, Yifan Zhai</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4327950390</t>
+          <t>University of Texas Health Science Ctr, San Antonio, TX; The University of Arizona Cancer Center, Tucson, AZ; Jonsson Comprehensive Cancer Center, University of California Los Angeles, Los Angeles, CA; Penn State Hershey Medical Center Cancer Institute, Hershey, PA; Sarah Cannon Research Institute at Tennessee Oncology, PLLC, Nashville, TN; Florida Cancer Specialists-South/Sarah Cannon Research Institute, Fort Myers, FL; Flinders Medical Centre, Bedford Park, SA, Australia; Sidney Kimmel Cancer Center, Thomas Jefferson University, Philadelphia, PA; NEXT Oncology, San Antonio, TX; Highlands Oncology, Springdale, AR; Cleveland Clinic, Cleveland, OH; Ascentage Pharma Group Inc., Rockville, MD; Ascentage Pharma Group Inc., Rockville, MD; Ascentage Pharma Group Inc., Rockville, MD; Ascentage Pharma Group Inc., Rockville, MD; Ascentage Pharma Group Inc., Rockville, MD; Ascentage Pharma Group Inc., Rockville, MD; Ascentage Pharma (Suzhou) Co., Ltd., Suzhou, China; Ascentage Pharma Group Inc., Rockville, MD</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Oxylipins as Biomarkers for Aromatase Inhibitor-Induced Arthralgia (AIA) in Breast Cancer Patients</t>
+          <t>https://openalex.org/W4379338881</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2023-03-20</t>
+          <t>A phase 2 study of alrizomadlin (APG-115) in combination with pembrolizumab in patients with unresectable or metastatic cutaneous melanoma that has failed immuno-oncologic (IO) drugs.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Metabolites</t>
+          <t>2023-06-01</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Multidisciplinary Digital Publishing Institute</t>
+          <t>Journal of Clinical Oncology</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/metabo13030452</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1200/jco.2023.41.16_suppl.9559</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36984892</t>
-        </is>
-      </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/metabo13030452</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1200/jco.2023.41.16_suppl.9559</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -852,42 +882,42 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Montaser Shaheen, Jennifer Segar, Bartosz Chmielowski, Joseph J. Drabick, Meredith McKean, James A. Reeves, Christos Stelios Karapetis, Marlana Orloff, Anthony W. Tolcher, J. Thaddeus Beck, Brian Gastman, Asit K. De, Ben Paudyal, R Winkler, Mingyu Li, Mohammad Ahmad, Dajun Yang, Yifan Zhai</t>
+          <t>Thomas U. Marron, J.G. Misleh, Charles Chen, Zev A. Wainberg, John D. Powderly, Ralph V. Boccia, Michael Gordon, Jennifer Segar, Ildiko Csiki, Juergen Schanzer, L. O'Toole, N. Huang, J. Seppa, J. Glenn, K. Klumpp, Alexander I. Spira</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4379338881</t>
+          <t>Hematology-Oncology Dept., The Mount Sinai Hospital - Icahn School of Medicine, New York, NY, USA; Medical Oncology Dept., Christiana Care Health System - Helen F. Graham Cancer Center and Research Institute, Newark, NJ, USA; ; Medicine Hematology and Oncology, UCLA - David Geffen School of Medicine, Los Angeles, CA, USA; Oncology, Carolina BioOncology Institute, Huntersville, NC, USA; ; Medical Oncology, HonorHealth Research Institute, Scottsdale, AZ, USA; Medical Oncology, The University of Arizona, Tucson, AZ, USA; R&amp;D, Riboscience LLC, Sunnyvale, CA, USA; Translational Medicine, Riboscience LLC, Sunnyvale, CA, USA; Clinical Operations, Riboscience LLC, Sunnyvale, CA, USA; R&amp;D, Riboscience LLC, Sunnyvale, CA, USA; R&amp;D, Riboscience LLC, Sunnyvale, CA, USA; Medicine and Microbiology &amp; Immunology, Stanford Health Care, Stanford, CA, USA; Management, Riboscience, Sunnyvale, CA, USA; Research Institute, Virginia Cancer Specialist, Fairfax, VA, USA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>A phase 2 study of alrizomadlin (APG-115) in combination with pembrolizumab in patients with unresectable or metastatic cutaneous melanoma that has failed immuno-oncologic (IO) drugs.</t>
+          <t>https://openalex.org/W4387811232</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2023-06-01</t>
+          <t>1025MO Preliminary safety, pharmacokinetics and immunomodulatory activity of RBS2418, an oral ENPP1 inhibitor, alone and in combination with pembrolizumab in patients with solid tumors</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Journal of Clinical Oncology</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>Annals of Oncology</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1200/jco.2023.41.16_suppl.9559</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1016/j.annonc.2023.09.2164</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -897,35 +927,40 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1200/jco.2023.41.16_suppl.9559</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.annonc.2023.09.2164</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -934,80 +969,85 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Thomas U. Marron, J.G. Misleh, Charles Chen, Zev A. Wainberg, John D. Powderly, Ralph V. Boccia, Michael Gordon, Jennifer Segar, Ildiko Csiki, Juergen Schanzer, L. O'Toole, N. Huang, J. Seppa, J. Glenn, K. Klumpp, Alexander I. Spira</t>
+          <t>Karl Krupp, Jennifer Segar, Juan Luis Fernández-Martínez, Purnima Madhivanan</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387811232</t>
+          <t>Public Health Practice, Policy, &amp; Translational Research Department, Mel and Enid Zuckerman College of Public Health, University of Arizona, 550 E. Van Buren Street, UA Phoenix - Plaza Building 1, Phoenix AZ 850063, USA.; University of Arizona Cancer Center - UAHS, University of Arizona College of Medicine, Tucson, 1501 N. Campbell Avenue, PO Box 245017, Tucson, AZ 85724, USA.; Department of Applied Mathematics, University of Oviedo, Spain.; Department of Health Promotion Sciences, Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson, 1295 N Martin Avenue, PO Box 245209, Tucson, AZ 85724-5209.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1025MO Preliminary safety, pharmacokinetics and immunomodulatory activity of RBS2418, an oral ENPP1 inhibitor, alone and in combination with pembrolizumab in patients with solid tumors</t>
+          <t>https://openalex.org/W4388500498</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>MicroRNAs: Emerging as Highly Promising Biomarkers for Early Breast Cancer Screening.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Annals of Oncology</t>
+          <t>2023-01-01</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>PubMed</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.annonc.2023.09.2164</t>
+          <t>National Institutes of Health</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37937319</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.annonc.2023.09.2164</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37937319</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1016,80 +1056,85 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Karl Krupp, Jennifer Segar, Juan Luis Fernández-Martínez, Purnima Madhivanan</t>
+          <t>Jessica A. Martinez, Betsy C. Wertheim, Denise J. Roe, Mihra S. Taljanovic, H‐H. Sherry Chow, Wade M. Chew, Sima Ehsani, Sao Jiralerspong, Jennifer Segar, Pavani Chalasani</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4388500498</t>
+          <t>The University of Arizona Cancer Center, Tucson, AZ 85724, USA; The University of Arizona Cancer Center, Tucson, AZ 85724, USA; The University of Arizona Cancer Center, Tucson, AZ 85724, USA; Department of Radiology, University of New Mexico, Albuquerque, NM 87106, USA; The University of Arizona Cancer Center, Tucson, AZ 85724, USA; The University of Arizona Cancer Center, Tucson, AZ 85724, USA; The University of Arizona Cancer Center, Tucson, AZ 85724, USA; The University of Arizona Cancer Center, Tucson, AZ 85724, USA; The University of Arizona Cancer Center, Tucson, AZ 85724, USA; The University of Arizona Cancer Center, Tucson, AZ 85724, USA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>MicroRNAs: Emerging as Highly Promising Biomarkers for Early Breast Cancer Screening.</t>
+          <t>https://openalex.org/W4327950390</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>Oxylipins as Biomarkers for Aromatase Inhibitor-Induced Arthralgia (AIA) in Breast Cancer Patients</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>PubMed</t>
+          <t>2023-03-20</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>National Institutes of Health</t>
+          <t>Metabolites</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37937319</t>
+          <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.3390/metabo13030452</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37937319</t>
-        </is>
-      </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36984892</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3390/metabo13030452</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
